--- a/biology/Botanique/William_Hudson/William_Hudson.xlsx
+++ b/biology/Botanique/William_Hudson/William_Hudson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Hudson, né vers 1730 à Kendall et mort le 23 mai 1793, est un botaniste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il devient apprenti auprès d’un pharmacien de Londres avant de devenir sous-bibliothécaire au British Museum (1757). Il devient membre de la Royal Society en 1761 et participe à la fondation de la Société linnéenne de Londres. Avec sa Flora Anglica, il participe à la popularisation de la classification linnéenne. Il fait également paraître Praefectus Horte (1765 à 1771). Il applique notamment la classification linnéenne aux plantes décrites par John Ray (1627-1705).
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
         </is>
